--- a/7. 통합구현/springboot_study/인터페이스명세서 (1).xlsx
+++ b/7. 통합구현/springboot_study/인터페이스명세서 (1).xlsx
@@ -311,106 +311,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{
-  "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>poster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-      </rPr>
-      <t>" : "작성자",
-  "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>subject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-      </rPr>
-      <t>" :＂제목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>..</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-      </rPr>
-      <t>",
-  "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>content</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-      </rPr>
-      <t>" : "내용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>..</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-      </rPr>
-      <t>"
-}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>message</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -559,6 +459,114 @@
         <rFont val="돋움"/>
       </rPr>
       <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "poster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+      </rPr>
+      <t>" : "작성자",
+  "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>subject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+      </rPr>
+      <t>" :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+      </rPr>
+      <t>",
+  "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+      </rPr>
+      <t>" : "내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+      </rPr>
+      <t>"
 }</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1505,8 +1513,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1652,7 +1660,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1689,17 +1697,17 @@
         <v>1</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1707,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>15</v>
@@ -1725,17 +1733,17 @@
         <v>3</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1743,7 +1751,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
